--- a/biology/Botanique/Forêt_de_feuillus_d'Europe_et_d'Asie_occidentale/Forêt_de_feuillus_d'Europe_et_d'Asie_occidentale.xlsx
+++ b/biology/Botanique/Forêt_de_feuillus_d'Europe_et_d'Asie_occidentale/Forêt_de_feuillus_d'Europe_et_d'Asie_occidentale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_feuillus_d%27Europe_et_d%27Asie_occidentale</t>
+          <t>Forêt_de_feuillus_d'Europe_et_d'Asie_occidentale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt de feuillus d'Europe et d'Asie est une variété de forêt tempérée.
 Cette forêt se situe dans les régions où la saison végétative (dès que la température est supérieure à 5 °C) est longue ce qui autorise la feuillaison annuelle, mais la floraison et la fructification sont plus irrégulières.
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_feuillus_d%27Europe_et_d%27Asie_occidentale</t>
+          <t>Forêt_de_feuillus_d'Europe_et_d'Asie_occidentale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Voir</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elhai (Henri), Biogéographie, 1968, Collection U, Armand Colin. Paris.
  Portail du bois et de la forêt   Portail de l’Europe   Portail de l’Asie                   </t>
